--- a/excel_exports/Mini project_ENTC_B.TechB.xlsx
+++ b/excel_exports/Mini project_ENTC_B.TechB.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:U9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -534,6 +534,11 @@
           <t>Attendance %</t>
         </is>
       </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>2025-11-22</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -625,10 +630,15 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -721,10 +731,15 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
       </c>
     </row>
     <row r="4">
@@ -817,10 +832,15 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -913,10 +933,15 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
       </c>
     </row>
     <row r="6">
@@ -1009,10 +1034,15 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
       </c>
     </row>
     <row r="7">
@@ -1105,10 +1135,15 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
       </c>
     </row>
     <row r="8">
@@ -1141,10 +1176,15 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
       </c>
     </row>
     <row r="9">
@@ -1237,10 +1277,15 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
       </c>
     </row>
   </sheetData>
